--- a/data/result/서울_월별_실거래지수_이동데이터.xlsx
+++ b/data/result/서울_월별_실거래지수_이동데이터.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\Mini-Project2\data\result\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="358">
   <si>
     <t>실거래지수</t>
   </si>
@@ -43,9 +48,6 @@
     <t>시도간전출 (명)</t>
   </si>
   <si>
-    <t>시점</t>
-  </si>
-  <si>
     <t>2013.01</t>
   </si>
   <si>
@@ -442,24 +444,677 @@
     <t>2023.12</t>
   </si>
   <si>
-    <t>2024.01</t>
-  </si>
-  <si>
-    <t>2024.02</t>
-  </si>
-  <si>
-    <t>2024.03</t>
+    <t>지지율</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIR지수_전국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매매수급동향</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비자물가지수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합부동산세_세율_개인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아파트매매거래량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주택담보대출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>5.49</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>5.53</t>
+  </si>
+  <si>
+    <t>3.97</t>
+  </si>
+  <si>
+    <t>5.65</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>5.62</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>5.52</t>
+  </si>
+  <si>
+    <t>3.73</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
+    <t>5.09</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>5.04</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>4.97</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>4.89</t>
+  </si>
+  <si>
+    <t>3.71</t>
+  </si>
+  <si>
+    <t>4.84</t>
+  </si>
+  <si>
+    <t>3.69</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
+    <t>5.31</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>5.32</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>5.41</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>5.38</t>
+  </si>
+  <si>
+    <t>5.37</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>5.44</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>5.01</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>5.22</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>5.33</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>5.42</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>5.43</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>5.63</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>5.66</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>5.29</t>
+  </si>
+  <si>
+    <t>5.39</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>5.58</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>5.59</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>5.82</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>5.86</t>
+  </si>
+  <si>
+    <t>5.89</t>
+  </si>
+  <si>
+    <t>5.83</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>6.23</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>5.99</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>5.73</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>5.93</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>6.17</t>
+  </si>
+  <si>
+    <t>6.15</t>
+  </si>
+  <si>
+    <t>6.19</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>6.21</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>6.26</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>6.33</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
+    <t>5.84</t>
+  </si>
+  <si>
+    <t>3.49</t>
+  </si>
+  <si>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>5.72</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>5.92</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5.79</t>
+  </si>
+  <si>
+    <t>5.85</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>5.78</t>
+  </si>
+  <si>
+    <t>5.69</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>2.51</t>
+  </si>
+  <si>
+    <t>5.51</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>4.96</t>
+  </si>
+  <si>
+    <t>5.13</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>6.22</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>6.14</t>
+  </si>
+  <si>
+    <t>6.45</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>6.51</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>6.46</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>6.47</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>6.61</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>6.71</t>
+  </si>
+  <si>
+    <t>6.78</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>6.73</t>
+  </si>
+  <si>
+    <t>6.74</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
+    <t>7.34</t>
+  </si>
+  <si>
+    <t>7.31</t>
+  </si>
+  <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.29</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>6.99</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>3.84</t>
+  </si>
+  <si>
+    <t>7.01</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>6.81</t>
+  </si>
+  <si>
+    <t>7.02</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>7.06</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>7.08</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>6.88</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>6.38</t>
+  </si>
+  <si>
+    <t>4.82</t>
+  </si>
+  <si>
+    <t>6.91</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>7.17</t>
+  </si>
+  <si>
+    <t>4.63</t>
+  </si>
+  <si>
+    <t>7.27</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>7.43</t>
+  </si>
+  <si>
+    <t>4.56</t>
+  </si>
+  <si>
+    <t>7.19</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>6.94</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>6.86</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>4.26</t>
+  </si>
+  <si>
+    <t>6.72</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>6.68</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>7.13</t>
+  </si>
+  <si>
+    <t>13.46</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>연도_월</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -467,20 +1122,79 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0EBD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -503,26 +1217,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDFDFDF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -564,7 +1330,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,9 +1362,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,6 +1397,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -805,16 +1573,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="11" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="23" style="8" customWidth="1"/>
+    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -843,13 +1619,34 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>72.40000000000001</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C2">
         <v>118477</v>
@@ -875,10 +1672,31 @@
       <c r="J2">
         <v>47172</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="2">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M2" s="6">
+        <v>86.104024570000007</v>
+      </c>
+      <c r="N2" s="7">
+        <v>92.727999999999994</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+      <c r="P2" s="9">
+        <v>16968</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>72.7</v>
@@ -907,10 +1725,31 @@
       <c r="J3">
         <v>58226</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="2">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="6">
+        <v>87.214932833489499</v>
+      </c>
+      <c r="N3" s="7">
+        <v>93.037999999999997</v>
+      </c>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9">
+        <v>34089</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>73.3</v>
@@ -939,10 +1778,31 @@
       <c r="J4">
         <v>52437</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="2">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="6">
+        <v>88.628196448101662</v>
+      </c>
+      <c r="N4" s="7">
+        <v>92.951999999999998</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9">
+        <v>47375</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>73.7</v>
@@ -971,13 +1831,34 @@
       <c r="J5">
         <v>48419</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="2">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="6">
+        <v>92.339970809007511</v>
+      </c>
+      <c r="N5" s="7">
+        <v>92.822999999999993</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9">
+        <v>55442</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>73.90000000000001</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="C6">
         <v>130619</v>
@@ -1003,13 +1884,34 @@
       <c r="J6">
         <v>45291</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="2">
+        <v>51</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M6" s="6">
+        <v>93.340457696919145</v>
+      </c>
+      <c r="N6" s="7">
+        <v>92.822999999999993</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>64538</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>73.40000000000001</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="C7">
         <v>115773</v>
@@ -1035,10 +1937,31 @@
       <c r="J7">
         <v>42057</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="2">
+        <v>51</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M7" s="6">
+        <v>92.102382317677112</v>
+      </c>
+      <c r="N7" s="7">
+        <v>92.71</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>94647</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>73.3</v>
@@ -1067,10 +1990,31 @@
       <c r="J8">
         <v>44469</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="2">
+        <v>60</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" s="6">
+        <v>90.413494629262701</v>
+      </c>
+      <c r="N8" s="7">
+        <v>92.909000000000006</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="9">
+        <v>25079</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>73.7</v>
@@ -1099,10 +2043,31 @@
       <c r="J9">
         <v>44080</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="2">
+        <v>60</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="6">
+        <v>89.563562415267498</v>
+      </c>
+      <c r="N9" s="7">
+        <v>93.238</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="9">
+        <v>30794</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>74.2</v>
@@ -1131,10 +2096,31 @@
       <c r="J10">
         <v>37543</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="2">
+        <v>60</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="6">
+        <v>92.227668561297392</v>
+      </c>
+      <c r="N10" s="7">
+        <v>93.418999999999997</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>39801</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>74.7</v>
@@ -1163,10 +2149,31 @@
       <c r="J11">
         <v>46662</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="2">
+        <v>54</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" s="6">
+        <v>95.664076758617085</v>
+      </c>
+      <c r="N11" s="7">
+        <v>93.134</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="9">
+        <v>65871</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>74.5</v>
@@ -1195,10 +2202,31 @@
       <c r="J12">
         <v>45714</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="2">
+        <v>54</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" s="6">
+        <v>95.614401252282804</v>
+      </c>
+      <c r="N12" s="7">
+        <v>93.116</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>61844</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>74.3</v>
@@ -1227,10 +2255,31 @@
       <c r="J13">
         <v>55562</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="2">
+        <v>54</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="6">
+        <v>94.534022124817355</v>
+      </c>
+      <c r="N13" s="7">
+        <v>93.228999999999999</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="9">
+        <v>67883</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>75</v>
@@ -1259,13 +2308,34 @@
       <c r="J14">
         <v>43755</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="2">
+        <v>55</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="6">
+        <v>95.253084226024271</v>
+      </c>
+      <c r="N14" s="7">
+        <v>93.73</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9">
+        <v>41973</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17.25" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="C15">
         <v>155429</v>
@@ -1291,10 +2361,31 @@
       <c r="J15">
         <v>59213</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="2">
+        <v>55</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M15" s="6">
+        <v>96.231589639410871</v>
+      </c>
+      <c r="N15" s="7">
+        <v>93.98</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9">
+        <v>58819</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>76</v>
@@ -1323,10 +2414,31 @@
       <c r="J16">
         <v>53816</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="2">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" s="6">
+        <v>96.609437700005074</v>
+      </c>
+      <c r="N16" s="7">
+        <v>94.153000000000006</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1</v>
+      </c>
+      <c r="P16" s="9">
+        <v>64598</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="17.25" thickBot="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>76</v>
@@ -1355,10 +2467,31 @@
       <c r="J17">
         <v>47583</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="2">
+        <v>50</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" s="6">
+        <v>95.435842730874739</v>
+      </c>
+      <c r="N17" s="7">
+        <v>94.213999999999999</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="9">
+        <v>64890</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="17.25" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>75.7</v>
@@ -1387,13 +2520,34 @@
       <c r="J18">
         <v>44414</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="2">
+        <v>50</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" s="6">
+        <v>95.224790449580908</v>
+      </c>
+      <c r="N18" s="7">
+        <v>94.369</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1</v>
+      </c>
+      <c r="P18" s="9">
+        <v>52072</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="17.25" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="C19">
         <v>122547</v>
@@ -1419,10 +2573,31 @@
       <c r="J19">
         <v>42265</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="2">
+        <v>50</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" s="6">
+        <v>95.725605729669311</v>
+      </c>
+      <c r="N19" s="7">
+        <v>94.248000000000005</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1</v>
+      </c>
+      <c r="P19" s="9">
+        <v>49045</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="17.25" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>75.7</v>
@@ -1451,13 +2626,34 @@
       <c r="J20">
         <v>44034</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="2">
+        <v>44</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" s="6">
+        <v>95.774362096078747</v>
+      </c>
+      <c r="N20" s="7">
+        <v>94.385999999999996</v>
+      </c>
+      <c r="O20" s="8">
+        <v>1</v>
+      </c>
+      <c r="P20" s="9">
+        <v>52832</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="17.25" thickBot="1">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C21">
         <v>124922</v>
@@ -1483,13 +2679,34 @@
       <c r="J21">
         <v>43147</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="2">
+        <v>44</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" s="6">
+        <v>97.187135392887939</v>
+      </c>
+      <c r="N21" s="7">
+        <v>94.551000000000002</v>
+      </c>
+      <c r="O21" s="8">
+        <v>1</v>
+      </c>
+      <c r="P21" s="9">
+        <v>54230</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17.25" thickBot="1">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>77.09999999999999</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="C22">
         <v>117715</v>
@@ -1515,10 +2732,31 @@
       <c r="J22">
         <v>40798</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="2">
+        <v>44</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" s="6">
+        <v>99.173302226505029</v>
+      </c>
+      <c r="N22" s="7">
+        <v>94.49</v>
+      </c>
+      <c r="O22" s="8">
+        <v>1</v>
+      </c>
+      <c r="P22" s="9">
+        <v>62271</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="17.25" thickBot="1">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>77.5</v>
@@ -1547,13 +2785,34 @@
       <c r="J23">
         <v>47322</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="2">
+        <v>44</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" s="6">
+        <v>100.27641121874524</v>
+      </c>
+      <c r="N23" s="7">
+        <v>94.204999999999998</v>
+      </c>
+      <c r="O23" s="8">
+        <v>1</v>
+      </c>
+      <c r="P23" s="9">
+        <v>78826</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="17.25" thickBot="1">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>77.40000000000001</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="C24">
         <v>124299</v>
@@ -1579,13 +2838,34 @@
       <c r="J24">
         <v>43372</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="2">
+        <v>44</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" s="6">
+        <v>99.416746969620121</v>
+      </c>
+      <c r="N24" s="7">
+        <v>94.015000000000001</v>
+      </c>
+      <c r="O24" s="8">
+        <v>1</v>
+      </c>
+      <c r="P24" s="9">
+        <v>64712</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17.25" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>77.40000000000001</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="C25">
         <v>132953</v>
@@ -1611,13 +2891,34 @@
       <c r="J25">
         <v>53683</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="2">
+        <v>44</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M25" s="6">
+        <v>98.950144545316221</v>
+      </c>
+      <c r="N25" s="7">
+        <v>94.006</v>
+      </c>
+      <c r="O25" s="8">
+        <v>1</v>
+      </c>
+      <c r="P25" s="9">
+        <v>64682</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="C26">
         <v>116958</v>
@@ -1643,10 +2944,31 @@
       <c r="J26">
         <v>45970</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="2">
+        <v>34</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M26" s="6">
+        <v>99.224245447742589</v>
+      </c>
+      <c r="N26" s="7">
+        <v>94.643000000000001</v>
+      </c>
+      <c r="O26" s="8">
+        <v>1</v>
+      </c>
+      <c r="P26" s="9">
+        <v>57418</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="17.25" thickBot="1">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>78.5</v>
@@ -1675,13 +2997,34 @@
       <c r="J27">
         <v>51864</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="2">
+        <v>34</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M27" s="6">
+        <v>99.845347967074076</v>
+      </c>
+      <c r="N27" s="7">
+        <v>94.587000000000003</v>
+      </c>
+      <c r="O27" s="8">
+        <v>1</v>
+      </c>
+      <c r="P27" s="9">
+        <v>57885</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="17.25" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>79.40000000000001</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="C28">
         <v>160393</v>
@@ -1707,10 +3050,31 @@
       <c r="J28">
         <v>58996</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="2">
+        <v>34</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="6">
+        <v>102.00798204040908</v>
+      </c>
+      <c r="N28" s="7">
+        <v>94.596000000000004</v>
+      </c>
+      <c r="O28" s="8">
+        <v>1</v>
+      </c>
+      <c r="P28" s="9">
+        <v>79312</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="17.25" thickBot="1">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>80.2</v>
@@ -1739,13 +3103,34 @@
       <c r="J29">
         <v>48209</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="2">
+        <v>36</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M29" s="6">
+        <v>102.88658250586298</v>
+      </c>
+      <c r="N29" s="7">
+        <v>94.625</v>
+      </c>
+      <c r="O29" s="8">
+        <v>1</v>
+      </c>
+      <c r="P29" s="9">
+        <v>83483</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="17.25" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>80.90000000000001</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="C30">
         <v>132359</v>
@@ -1771,13 +3156,34 @@
       <c r="J30">
         <v>45020</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="2">
+        <v>36</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M30" s="6">
+        <v>102.38214018458469</v>
+      </c>
+      <c r="N30" s="7">
+        <v>94.89</v>
+      </c>
+      <c r="O30" s="8">
+        <v>1</v>
+      </c>
+      <c r="P30" s="9">
+        <v>74385</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="17.25" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>81.40000000000001</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="C31">
         <v>135400</v>
@@ -1803,10 +3209,31 @@
       <c r="J31">
         <v>49350</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="2">
+        <v>36</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" s="6">
+        <v>102.576702419556</v>
+      </c>
+      <c r="N31" s="7">
+        <v>94.909000000000006</v>
+      </c>
+      <c r="O31" s="8">
+        <v>1</v>
+      </c>
+      <c r="P31" s="9">
+        <v>72178</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17.25" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>82.5</v>
@@ -1835,10 +3262,31 @@
       <c r="J32">
         <v>47454</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="2">
+        <v>40</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M32" s="6">
+        <v>101.8844022</v>
+      </c>
+      <c r="N32" s="7">
+        <v>95.08</v>
+      </c>
+      <c r="O32" s="8">
+        <v>1</v>
+      </c>
+      <c r="P32" s="9">
+        <v>74112</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="17.25" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>83.2</v>
@@ -1867,13 +3315,34 @@
       <c r="J33">
         <v>49816</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="2">
+        <v>40</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M33" s="6">
+        <v>101.88242280285036</v>
+      </c>
+      <c r="N33" s="7">
+        <v>95.212999999999994</v>
+      </c>
+      <c r="O33" s="8">
+        <v>1</v>
+      </c>
+      <c r="P33" s="9">
+        <v>62424</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="17.25" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>83.90000000000001</v>
+        <v>83.9</v>
       </c>
       <c r="C34">
         <v>112803</v>
@@ -1899,13 +3368,34 @@
       <c r="J34">
         <v>43906</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" s="2">
+        <v>40</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M34" s="6">
+        <v>102.36539984164689</v>
+      </c>
+      <c r="N34" s="7">
+        <v>94.965999999999994</v>
+      </c>
+      <c r="O34" s="8">
+        <v>1</v>
+      </c>
+      <c r="P34" s="9">
+        <v>56434</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="17.25" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>84.40000000000001</v>
+        <v>84.4</v>
       </c>
       <c r="C35">
         <v>135505</v>
@@ -1931,10 +3421,31 @@
       <c r="J35">
         <v>50943</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" s="2">
+        <v>43</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M35" s="6">
+        <v>103.25415676959621</v>
+      </c>
+      <c r="N35" s="7">
+        <v>94.965999999999994</v>
+      </c>
+      <c r="O35" s="8">
+        <v>1</v>
+      </c>
+      <c r="P35" s="9">
+        <v>70140</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="17.25" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>84.8</v>
@@ -1963,13 +3474,34 @@
       <c r="J36">
         <v>48865</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" s="2">
+        <v>43</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M36" s="6">
+        <v>103.41053048297704</v>
+      </c>
+      <c r="N36" s="7">
+        <v>94.786000000000001</v>
+      </c>
+      <c r="O36" s="8">
+        <v>1</v>
+      </c>
+      <c r="P36" s="9">
+        <v>64841</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="17.25" thickBot="1">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37">
-        <v>84.40000000000001</v>
+        <v>84.4</v>
       </c>
       <c r="C37">
         <v>133340</v>
@@ -1995,10 +3527,31 @@
       <c r="J37">
         <v>56765</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" s="2">
+        <v>43</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="M37" s="6">
+        <v>100.56215360253364</v>
+      </c>
+      <c r="N37" s="7">
+        <v>95.07</v>
+      </c>
+      <c r="O37" s="8">
+        <v>1</v>
+      </c>
+      <c r="P37" s="9">
+        <v>55874</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="17.25" thickBot="1">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>84.2</v>
@@ -2027,13 +3580,34 @@
       <c r="J38">
         <v>46372</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" s="2">
+        <v>40</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M38" s="6">
+        <v>99.790182106096594</v>
+      </c>
+      <c r="N38" s="7">
+        <v>95.231999999999999</v>
+      </c>
+      <c r="O38" s="8">
+        <v>1</v>
+      </c>
+      <c r="P38" s="9">
+        <v>39695</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="17.25" thickBot="1">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>84.40000000000001</v>
+        <v>84.4</v>
       </c>
       <c r="C39">
         <v>145256</v>
@@ -2059,10 +3633,31 @@
       <c r="J39">
         <v>59558</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" s="2">
+        <v>40</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M39" s="6">
+        <v>98.834125098970702</v>
+      </c>
+      <c r="N39" s="7">
+        <v>95.64</v>
+      </c>
+      <c r="O39" s="8">
+        <v>1</v>
+      </c>
+      <c r="P39" s="9">
+        <v>38225</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="17.25" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>84.5</v>
@@ -2091,10 +3686,31 @@
       <c r="J40">
         <v>55360</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" s="2">
+        <v>40</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M40" s="6">
+        <v>97.903800475059384</v>
+      </c>
+      <c r="N40" s="7">
+        <v>95.393000000000001</v>
+      </c>
+      <c r="O40" s="8">
+        <v>1</v>
+      </c>
+      <c r="P40" s="9">
+        <v>49179</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="17.25" thickBot="1">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41">
         <v>84.8</v>
@@ -2123,10 +3739,31 @@
       <c r="J41">
         <v>44406</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" s="2">
+        <v>33</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M41" s="6">
+        <v>97.600950118764843</v>
+      </c>
+      <c r="N41" s="7">
+        <v>95.572999999999993</v>
+      </c>
+      <c r="O41" s="8">
+        <v>1</v>
+      </c>
+      <c r="P41" s="9">
+        <v>54884</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="17.25" thickBot="1">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>85.5</v>
@@ -2155,13 +3792,34 @@
       <c r="J42">
         <v>45792</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" s="2">
+        <v>33</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M42" s="6">
+        <v>97.25257323832146</v>
+      </c>
+      <c r="N42" s="7">
+        <v>95.63</v>
+      </c>
+      <c r="O42" s="8">
+        <v>1</v>
+      </c>
+      <c r="P42" s="9">
+        <v>56369</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="17.25" thickBot="1">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>86.59999999999999</v>
+        <v>86.6</v>
       </c>
       <c r="C43">
         <v>119398</v>
@@ -2187,13 +3845,34 @@
       <c r="J43">
         <v>45922</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" s="2">
+        <v>33</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M43" s="6">
+        <v>97.007125890736333</v>
+      </c>
+      <c r="N43" s="7">
+        <v>95.611000000000004</v>
+      </c>
+      <c r="O43" s="8">
+        <v>1</v>
+      </c>
+      <c r="P43" s="9">
+        <v>59252</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="17.25" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="C44">
         <v>110156</v>
@@ -2219,10 +3898,31 @@
       <c r="J44">
         <v>45023</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" s="2">
+        <v>32</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M44" s="6">
+        <v>97.207046714172606</v>
+      </c>
+      <c r="N44" s="7">
+        <v>95.430999999999997</v>
+      </c>
+      <c r="O44" s="8">
+        <v>1</v>
+      </c>
+      <c r="P44" s="9">
+        <v>63906</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="17.25" thickBot="1">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>89.2</v>
@@ -2251,13 +3951,34 @@
       <c r="J45">
         <v>54580</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" s="2">
+        <v>32</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M45" s="6">
+        <v>97.759303246239114</v>
+      </c>
+      <c r="N45" s="7">
+        <v>95.677000000000007</v>
+      </c>
+      <c r="O45" s="8">
+        <v>1</v>
+      </c>
+      <c r="P45" s="9">
+        <v>64462</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="17.25" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="C46">
         <v>117840</v>
@@ -2283,13 +4004,34 @@
       <c r="J46">
         <v>44090</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" s="2">
+        <v>32</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="6">
+        <v>97.908362752913476</v>
+      </c>
+      <c r="N46" s="7">
+        <v>96.247</v>
+      </c>
+      <c r="O46" s="8">
+        <v>1</v>
+      </c>
+      <c r="P46" s="9">
+        <v>61599</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="17.25" thickBot="1">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>91.59999999999999</v>
+        <v>91.6</v>
       </c>
       <c r="C47">
         <v>133610</v>
@@ -2315,10 +4057,31 @@
       <c r="J47">
         <v>48971</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" s="2">
+        <v>12</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M47" s="6">
+        <v>98.986448012754821</v>
+      </c>
+      <c r="N47" s="7">
+        <v>96.379000000000005</v>
+      </c>
+      <c r="O47" s="8">
+        <v>1</v>
+      </c>
+      <c r="P47" s="9">
+        <v>74208</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="17.25" thickBot="1">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48">
         <v>91.8</v>
@@ -2347,10 +4110,31 @@
       <c r="J48">
         <v>49334</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" s="2">
+        <v>12</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="M48" s="6">
+        <v>99.06233391542024</v>
+      </c>
+      <c r="N48" s="7">
+        <v>96.236999999999995</v>
+      </c>
+      <c r="O48" s="8">
+        <v>1</v>
+      </c>
+      <c r="P48" s="9">
+        <v>68816</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="17.25" thickBot="1">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>91.2</v>
@@ -2379,10 +4163,31 @@
       <c r="J49">
         <v>54536</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" s="2">
+        <v>12</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="M49" s="6">
+        <v>98.280378089055915</v>
+      </c>
+      <c r="N49" s="7">
+        <v>96.341999999999999</v>
+      </c>
+      <c r="O49" s="8">
+        <v>1</v>
+      </c>
+      <c r="P49" s="9">
+        <v>58496</v>
+      </c>
+      <c r="Q49" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="17.25" thickBot="1">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>91</v>
@@ -2411,10 +4216,31 @@
       <c r="J50">
         <v>43597</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" s="2">
+        <v>81</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M50" s="6">
+        <v>97.475610219033513</v>
+      </c>
+      <c r="N50" s="7">
+        <v>97.366</v>
+      </c>
+      <c r="O50" s="8">
+        <v>1</v>
+      </c>
+      <c r="P50" s="9">
+        <v>38086</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="17.25" thickBot="1">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>91</v>
@@ -2443,10 +4269,31 @@
       <c r="J51">
         <v>59032</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" s="2">
+        <v>81</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="M51" s="6">
+        <v>97.16232632298231</v>
+      </c>
+      <c r="N51" s="7">
+        <v>97.632000000000005</v>
+      </c>
+      <c r="O51" s="8">
+        <v>1</v>
+      </c>
+      <c r="P51" s="9">
+        <v>40436</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="17.25" thickBot="1">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>91.7</v>
@@ -2475,10 +4322,31 @@
       <c r="J52">
         <v>52705</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" s="2">
+        <v>81</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M52" s="6">
+        <v>97.579910409232411</v>
+      </c>
+      <c r="N52" s="7">
+        <v>97.564999999999998</v>
+      </c>
+      <c r="O52" s="8">
+        <v>1</v>
+      </c>
+      <c r="P52" s="9">
+        <v>48470</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="17.25" thickBot="1">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>92</v>
@@ -2507,13 +4375,34 @@
       <c r="J53">
         <v>40200</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" s="2">
+        <v>75</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M53" s="6">
+        <v>97.332649884193344</v>
+      </c>
+      <c r="N53" s="7">
+        <v>97.441999999999993</v>
+      </c>
+      <c r="O53" s="8">
+        <v>1</v>
+      </c>
+      <c r="P53" s="9">
+        <v>46811</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="17.25" thickBot="1">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>93.40000000000001</v>
+        <v>93.4</v>
       </c>
       <c r="C54">
         <v>124132</v>
@@ -2539,10 +4428,31 @@
       <c r="J54">
         <v>42462</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" s="2">
+        <v>75</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M54" s="6">
+        <v>98.011622607110311</v>
+      </c>
+      <c r="N54" s="7">
+        <v>97.546000000000006</v>
+      </c>
+      <c r="O54" s="8">
+        <v>1</v>
+      </c>
+      <c r="P54" s="9">
+        <v>53387</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="17.25" thickBot="1">
       <c r="A55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>95.3</v>
@@ -2571,10 +4481,31 @@
       <c r="J55">
         <v>40345</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" s="2">
+        <v>75</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M55" s="6">
+        <v>99.086801336573515</v>
+      </c>
+      <c r="N55" s="7">
+        <v>97.337999999999994</v>
+      </c>
+      <c r="O55" s="8">
+        <v>1</v>
+      </c>
+      <c r="P55" s="9">
+        <v>64444</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="17.25" thickBot="1">
       <c r="A56" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>97.7</v>
@@ -2603,10 +4534,31 @@
       <c r="J56">
         <v>41762</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" s="2">
+        <v>73</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="M56" s="6">
+        <v>99.794957472660997</v>
+      </c>
+      <c r="N56" s="7">
+        <v>97.498999999999995</v>
+      </c>
+      <c r="O56" s="8">
+        <v>1</v>
+      </c>
+      <c r="P56" s="9">
+        <v>65605</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="17.25" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>98</v>
@@ -2635,10 +4587,31 @@
       <c r="J57">
         <v>49074</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" s="2">
+        <v>73</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M57" s="6">
+        <v>98.819420718976573</v>
+      </c>
+      <c r="N57" s="7">
+        <v>98.058000000000007</v>
+      </c>
+      <c r="O57" s="8">
+        <v>1</v>
+      </c>
+      <c r="P57" s="9">
+        <v>64300</v>
+      </c>
+      <c r="Q57" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="17.25" thickBot="1">
       <c r="A58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>98.3</v>
@@ -2667,13 +4640,34 @@
       <c r="J58">
         <v>47157</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" s="2">
+        <v>73</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="M58" s="6">
+        <v>97.481304331321411</v>
+      </c>
+      <c r="N58" s="7">
+        <v>98.171999999999997</v>
+      </c>
+      <c r="O58" s="8">
+        <v>1</v>
+      </c>
+      <c r="P58" s="9">
+        <v>54953</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="17.25" thickBot="1">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>99.40000000000001</v>
+        <v>99.4</v>
       </c>
       <c r="C59">
         <v>109323</v>
@@ -2699,10 +4693,31 @@
       <c r="J59">
         <v>39881</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" s="2">
+        <v>68</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M59" s="6">
+        <v>97.718559009983679</v>
+      </c>
+      <c r="N59" s="7">
+        <v>98.076999999999998</v>
+      </c>
+      <c r="O59" s="8">
+        <v>1</v>
+      </c>
+      <c r="P59" s="9">
+        <v>40079</v>
+      </c>
+      <c r="Q59" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="17.25" thickBot="1">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>100</v>
@@ -2731,10 +4746,31 @@
       <c r="J60">
         <v>46621</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" s="2">
+        <v>68</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="M60" s="6">
+        <v>97.145351706335646</v>
+      </c>
+      <c r="N60" s="7">
+        <v>97.346999999999994</v>
+      </c>
+      <c r="O60" s="8">
+        <v>1</v>
+      </c>
+      <c r="P60" s="9">
+        <v>48291</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="17.25" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>101</v>
@@ -2763,10 +4799,31 @@
       <c r="J61">
         <v>49780</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" s="2">
+        <v>68</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M61" s="6">
+        <v>95.666191797255763</v>
+      </c>
+      <c r="N61" s="7">
+        <v>97.697999999999993</v>
+      </c>
+      <c r="O61" s="8">
+        <v>1</v>
+      </c>
+      <c r="P61" s="9">
+        <v>46292</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="17.25" thickBot="1">
       <c r="A62" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>103</v>
@@ -2795,10 +4852,31 @@
       <c r="J62">
         <v>51455</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" s="2">
+        <v>75</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M62" s="6">
+        <v>95.881757516682924</v>
+      </c>
+      <c r="N62" s="7">
+        <v>98.105999999999995</v>
+      </c>
+      <c r="O62" s="8">
+        <v>1</v>
+      </c>
+      <c r="P62" s="9">
+        <v>47525</v>
+      </c>
+      <c r="Q62" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="17.25" thickBot="1">
       <c r="A63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63">
         <v>104.8</v>
@@ -2827,10 +4905,31 @@
       <c r="J63">
         <v>56515</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" s="2">
+        <v>75</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="M63" s="6">
+        <v>96.43847941816</v>
+      </c>
+      <c r="N63" s="7">
+        <v>98.855000000000004</v>
+      </c>
+      <c r="O63" s="8">
+        <v>1</v>
+      </c>
+      <c r="P63" s="9">
+        <v>49366</v>
+      </c>
+      <c r="Q63" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="17.25" thickBot="1">
       <c r="A64" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64">
         <v>106.1</v>
@@ -2859,10 +4958,31 @@
       <c r="J64">
         <v>56359</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" s="2">
+        <v>75</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M64" s="6">
+        <v>96.224788183249615</v>
+      </c>
+      <c r="N64" s="7">
+        <v>98.751000000000005</v>
+      </c>
+      <c r="O64" s="8">
+        <v>1</v>
+      </c>
+      <c r="P64" s="9">
+        <v>62050</v>
+      </c>
+      <c r="Q64" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="17.25" thickBot="1">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B65">
         <v>107.4</v>
@@ -2891,10 +5011,31 @@
       <c r="J65">
         <v>46155</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" s="2">
+        <v>60</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="M65" s="6">
+        <v>93.548024293319344</v>
+      </c>
+      <c r="N65" s="7">
+        <v>98.930999999999997</v>
+      </c>
+      <c r="O65" s="8">
+        <v>1</v>
+      </c>
+      <c r="P65" s="9">
+        <v>46368</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="17.25" thickBot="1">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B66">
         <v>108</v>
@@ -2923,10 +5064,31 @@
       <c r="J66">
         <v>45822</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" s="2">
+        <v>60</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M66" s="6">
+        <v>91.637924570743039</v>
+      </c>
+      <c r="N66" s="7">
+        <v>98.978999999999999</v>
+      </c>
+      <c r="O66" s="8">
+        <v>1</v>
+      </c>
+      <c r="P66" s="9">
+        <v>41989</v>
+      </c>
+      <c r="Q66" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="17.25" thickBot="1">
       <c r="A67" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B67">
         <v>108.6</v>
@@ -2955,10 +5117,31 @@
       <c r="J67">
         <v>41119</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" s="2">
+        <v>60</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="M67" s="6">
+        <v>90.852515558221484</v>
+      </c>
+      <c r="N67" s="7">
+        <v>98.778999999999996</v>
+      </c>
+      <c r="O67" s="8">
+        <v>1</v>
+      </c>
+      <c r="P67" s="9">
+        <v>40367</v>
+      </c>
+      <c r="Q67" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="17.25" thickBot="1">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68">
         <v>110.3</v>
@@ -2987,10 +5170,31 @@
       <c r="J68">
         <v>44581</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68" s="2">
+        <v>55</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M68" s="6">
+        <v>90.942490815025863</v>
+      </c>
+      <c r="N68" s="7">
+        <v>98.59</v>
+      </c>
+      <c r="O68" s="8">
+        <v>1</v>
+      </c>
+      <c r="P68" s="9">
+        <v>39353</v>
+      </c>
+      <c r="Q68" s="10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="17.25" thickBot="1">
       <c r="A69" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69">
         <v>115</v>
@@ -3019,10 +5223,31 @@
       <c r="J69">
         <v>47781</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69" s="2">
+        <v>55</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="M69" s="6">
+        <v>91.885356526955093</v>
+      </c>
+      <c r="N69" s="7">
+        <v>99.462000000000003</v>
+      </c>
+      <c r="O69" s="8">
+        <v>1</v>
+      </c>
+      <c r="P69" s="9">
+        <v>42894</v>
+      </c>
+      <c r="Q69" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="17.25" thickBot="1">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>121.5</v>
@@ -3051,10 +5276,31 @@
       <c r="J70">
         <v>37332</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" s="2">
+        <v>55</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M70" s="6">
+        <v>94.948264227337489</v>
+      </c>
+      <c r="N70" s="7">
+        <v>100.221</v>
+      </c>
+      <c r="O70" s="8">
+        <v>1</v>
+      </c>
+      <c r="P70" s="9">
+        <v>53754</v>
+      </c>
+      <c r="Q70" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="17.25" thickBot="1">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71">
         <v>122.4</v>
@@ -3083,10 +5329,31 @@
       <c r="J71">
         <v>48430</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" s="2">
+        <v>46</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M71" s="6">
+        <v>93.171252905450984</v>
+      </c>
+      <c r="N71" s="7">
+        <v>100.041</v>
+      </c>
+      <c r="O71" s="8">
+        <v>1</v>
+      </c>
+      <c r="P71" s="9">
+        <v>64559</v>
+      </c>
+      <c r="Q71" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="17.25" thickBot="1">
       <c r="A72" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72">
         <v>120.7</v>
@@ -3115,10 +5382,31 @@
       <c r="J72">
         <v>46903</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" s="2">
+        <v>46</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="M72" s="6">
+        <v>91.845992352103167</v>
+      </c>
+      <c r="N72" s="7">
+        <v>99.33</v>
+      </c>
+      <c r="O72" s="8">
+        <v>1</v>
+      </c>
+      <c r="P72" s="9">
+        <v>41663</v>
+      </c>
+      <c r="Q72" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="17.25" thickBot="1">
       <c r="A73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73">
         <v>119.1</v>
@@ -3147,10 +5435,31 @@
       <c r="J73">
         <v>47909</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73" s="2">
+        <v>46</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="M73" s="6">
+        <v>90.162705256054593</v>
+      </c>
+      <c r="N73" s="7">
+        <v>98.988</v>
+      </c>
+      <c r="O73" s="8">
+        <v>1</v>
+      </c>
+      <c r="P73" s="9">
+        <v>33584</v>
+      </c>
+      <c r="Q73" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="17.25" thickBot="1">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74">
         <v>117.9</v>
@@ -3179,10 +5488,31 @@
       <c r="J74">
         <v>48524</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74" s="2">
+        <v>45</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M74" s="6">
+        <v>86.001018107773973</v>
+      </c>
+      <c r="N74" s="7">
+        <v>98.884</v>
+      </c>
+      <c r="O74" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P74" s="9">
+        <v>31305</v>
+      </c>
+      <c r="Q74" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="17.25" thickBot="1">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75">
         <v>117.2</v>
@@ -3211,10 +5541,31 @@
       <c r="J75">
         <v>52777</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75" s="2">
+        <v>45</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M75" s="6">
+        <v>84.490218893171402</v>
+      </c>
+      <c r="N75" s="7">
+        <v>99.311000000000007</v>
+      </c>
+      <c r="O75" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P75" s="9">
+        <v>28293</v>
+      </c>
+      <c r="Q75" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="17.25" thickBot="1">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76">
         <v>116.1</v>
@@ -3243,10 +5594,31 @@
       <c r="J76">
         <v>47976</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76" s="2">
+        <v>45</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M76" s="6">
+        <v>83.350301796233012</v>
+      </c>
+      <c r="N76" s="7">
+        <v>99.120999999999995</v>
+      </c>
+      <c r="O76" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P76" s="9">
+        <v>31760</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="17.25" thickBot="1">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B77">
         <v>116.1</v>
@@ -3275,10 +5647,31 @@
       <c r="J77">
         <v>42337</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77" s="2">
+        <v>45</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M77" s="6">
+        <v>82.617627808886624</v>
+      </c>
+      <c r="N77" s="7">
+        <v>99.480999999999995</v>
+      </c>
+      <c r="O77" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P77" s="9">
+        <v>35893</v>
+      </c>
+      <c r="Q77" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="17.25" thickBot="1">
       <c r="A78" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B78">
         <v>117.3</v>
@@ -3307,10 +5700,31 @@
       <c r="J78">
         <v>42081</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78" s="2">
+        <v>45</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M78" s="6">
+        <v>82.366736964584391</v>
+      </c>
+      <c r="N78" s="7">
+        <v>99.652000000000001</v>
+      </c>
+      <c r="O78" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P78" s="9">
+        <v>35710</v>
+      </c>
+      <c r="Q78" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="17.25" thickBot="1">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>119.7</v>
@@ -3339,10 +5753,31 @@
       <c r="J79">
         <v>35920</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79" s="2">
+        <v>45</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M79" s="6">
+        <v>82.397643807723085</v>
+      </c>
+      <c r="N79" s="7">
+        <v>99.491</v>
+      </c>
+      <c r="O79" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P79" s="9">
+        <v>35221</v>
+      </c>
+      <c r="Q79" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="17.25" thickBot="1">
       <c r="A80" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80">
         <v>122.2</v>
@@ -3371,10 +5806,31 @@
       <c r="J80">
         <v>43674</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80" s="2">
+        <v>44</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M80" s="6">
+        <v>85.075630863209952</v>
+      </c>
+      <c r="N80" s="7">
+        <v>99.186999999999998</v>
+      </c>
+      <c r="O80" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P80" s="9">
+        <v>44391</v>
+      </c>
+      <c r="Q80" s="10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="17.25" thickBot="1">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81">
         <v>123.9</v>
@@ -3403,10 +5859,31 @@
       <c r="J81">
         <v>45070</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" s="2">
+        <v>44</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="M81" s="6">
+        <v>86.544614937095488</v>
+      </c>
+      <c r="N81" s="7">
+        <v>99.424999999999997</v>
+      </c>
+      <c r="O81" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P81" s="9">
+        <v>45497</v>
+      </c>
+      <c r="Q81" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="17.25" thickBot="1">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>125.3</v>
@@ -3435,10 +5912,31 @@
       <c r="J82">
         <v>39602</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" s="2">
+        <v>44</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M82" s="6">
+        <v>87.356363636363639</v>
+      </c>
+      <c r="N82" s="7">
+        <v>99.793999999999997</v>
+      </c>
+      <c r="O82" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P82" s="9">
+        <v>43979</v>
+      </c>
+      <c r="Q82" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="17.25" thickBot="1">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83">
         <v>127.2</v>
@@ -3467,10 +5965,31 @@
       <c r="J83">
         <v>41820</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83" s="2">
+        <v>46</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M83" s="6">
+        <v>88.850909090909084</v>
+      </c>
+      <c r="N83" s="7">
+        <v>100.041</v>
+      </c>
+      <c r="O83" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P83" s="9">
+        <v>58311</v>
+      </c>
+      <c r="Q83" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="17.25" thickBot="1">
       <c r="A84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>129.6</v>
@@ -3499,13 +6018,34 @@
       <c r="J84">
         <v>39153</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" s="2">
+        <v>46</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="M84" s="6">
+        <v>90.696363636363643</v>
+      </c>
+      <c r="N84" s="7">
+        <v>99.480999999999995</v>
+      </c>
+      <c r="O84" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P84" s="9">
+        <v>66768</v>
+      </c>
+      <c r="Q84" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="17.25" thickBot="1">
       <c r="A85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>131.8</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="C85">
         <v>127797</v>
@@ -3531,13 +6071,34 @@
       <c r="J85">
         <v>46520</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85" s="2">
+        <v>46</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M85" s="6">
+        <v>94.553123409206606</v>
+      </c>
+      <c r="N85" s="7">
+        <v>99.718999999999994</v>
+      </c>
+      <c r="O85" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P85" s="9">
+        <v>87933</v>
+      </c>
+      <c r="Q85" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="17.25" thickBot="1">
       <c r="A86" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>132.8</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="C86">
         <v>131105</v>
@@ -3563,13 +6124,34 @@
       <c r="J86">
         <v>45678</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86" s="2">
+        <v>61</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M86" s="6">
+        <v>95.327877526544157</v>
+      </c>
+      <c r="N86" s="11">
+        <v>100.09</v>
+      </c>
+      <c r="O86" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P86" s="9">
+        <v>75986</v>
+      </c>
+      <c r="Q86" s="10" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="17.25" thickBot="1">
       <c r="A87" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>134.7</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="C87">
         <v>170587</v>
@@ -3595,13 +6177,34 @@
       <c r="J87">
         <v>57473</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87" s="2">
+        <v>61</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="M87" s="6">
+        <v>96.481605587104511</v>
+      </c>
+      <c r="N87" s="11">
+        <v>100.16</v>
+      </c>
+      <c r="O87" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P87" s="9">
+        <v>87642</v>
+      </c>
+      <c r="Q87" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="17.25" thickBot="1">
       <c r="A88" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>135.8</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="C88">
         <v>164402</v>
@@ -3627,10 +6230,31 @@
       <c r="J88">
         <v>57556</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88" s="2">
+        <v>61</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M88" s="6">
+        <v>97.130410243747576</v>
+      </c>
+      <c r="N88" s="11">
+        <v>99.94</v>
+      </c>
+      <c r="O88" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P88" s="9">
+        <v>79615</v>
+      </c>
+      <c r="Q88" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="17.25" thickBot="1">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89">
         <v>134.6</v>
@@ -3659,13 +6283,34 @@
       <c r="J89">
         <v>43652</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89" s="2">
+        <v>45</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="M89" s="6">
+        <v>94.79383443264787</v>
+      </c>
+      <c r="N89" s="11">
+        <v>99.5</v>
+      </c>
+      <c r="O89" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P89" s="9">
+        <v>48972</v>
+      </c>
+      <c r="Q89" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="17.25" thickBot="1">
       <c r="A90" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>135.3</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="C90">
         <v>117734</v>
@@ -3691,13 +6336,34 @@
       <c r="J90">
         <v>40204</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90" s="2">
+        <v>45</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M90" s="6">
+        <v>94.208317166942962</v>
+      </c>
+      <c r="N90" s="11">
+        <v>99.44</v>
+      </c>
+      <c r="O90" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P90" s="9">
+        <v>57426</v>
+      </c>
+      <c r="Q90" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="17.25" thickBot="1">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>140.2</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="C91">
         <v>122292</v>
@@ -3723,10 +6389,31 @@
       <c r="J91">
         <v>43872</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91" s="2">
+        <v>45</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M91" s="6">
+        <v>97.810064534330138</v>
+      </c>
+      <c r="N91" s="11">
+        <v>99.71</v>
+      </c>
+      <c r="O91" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P91" s="9">
+        <v>102482</v>
+      </c>
+      <c r="Q91" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="17.25" thickBot="1">
       <c r="A92" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B92">
         <v>147.4</v>
@@ -3755,10 +6442,31 @@
       <c r="J92">
         <v>43720</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92" s="2">
+        <v>42</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M92" s="6">
+        <v>104.93141507105329</v>
+      </c>
+      <c r="N92" s="11">
+        <v>99.63</v>
+      </c>
+      <c r="O92" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P92" s="9">
+        <v>102628</v>
+      </c>
+      <c r="Q92" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="17.25" thickBot="1">
       <c r="A93" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B93">
         <v>152.1</v>
@@ -3787,13 +6495,34 @@
       <c r="J93">
         <v>48416</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93" s="2">
+        <v>42</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="M93" s="6">
+        <v>105.56260799040868</v>
+      </c>
+      <c r="N93" s="11">
+        <v>100.19</v>
+      </c>
+      <c r="O93" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P93" s="9">
+        <v>59429</v>
+      </c>
+      <c r="Q93" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="17.25" thickBot="1">
       <c r="A94" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>154.2</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="C94">
         <v>127908</v>
@@ -3819,10 +6548,31 @@
       <c r="J94">
         <v>47979</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94" s="2">
+        <v>42</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M94" s="6">
+        <v>104.78843441466854</v>
+      </c>
+      <c r="N94" s="11">
+        <v>100.74</v>
+      </c>
+      <c r="O94" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P94" s="9">
+        <v>58037</v>
+      </c>
+      <c r="Q94" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="17.25" thickBot="1">
       <c r="A95" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B95">
         <v>155.5</v>
@@ -3851,13 +6601,34 @@
       <c r="J95">
         <v>45756</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95" s="2">
+        <v>38</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M95" s="6">
+        <v>104.56629055007053</v>
+      </c>
+      <c r="N95" s="11">
+        <v>100.18</v>
+      </c>
+      <c r="O95" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P95" s="9">
+        <v>66174</v>
+      </c>
+      <c r="Q95" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="17.25" thickBot="1">
       <c r="A96" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>158.3</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="C96">
         <v>117563</v>
@@ -3883,13 +6654,34 @@
       <c r="J96">
         <v>45352</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96" s="2">
+        <v>38</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M96" s="6">
+        <v>107.09978843441466</v>
+      </c>
+      <c r="N96" s="11">
+        <v>100.09</v>
+      </c>
+      <c r="O96" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P96" s="9">
+        <v>89660</v>
+      </c>
+      <c r="Q96" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="17.25" thickBot="1">
       <c r="A97" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>161.7</v>
+        <v>161.69999999999999</v>
       </c>
       <c r="C97">
         <v>133111</v>
@@ -3915,10 +6707,31 @@
       <c r="J97">
         <v>55206</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97" s="2">
+        <v>38</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="M97" s="6">
+        <v>111.29407616361071</v>
+      </c>
+      <c r="N97" s="11">
+        <v>100.33</v>
+      </c>
+      <c r="O97" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="P97" s="9">
+        <v>106027</v>
+      </c>
+      <c r="Q97" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="17.25" thickBot="1">
       <c r="A98" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B98">
         <v>166.8</v>
@@ -3947,10 +6760,31 @@
       <c r="J98">
         <v>49584</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98" s="2">
+        <v>35</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M98" s="6">
+        <v>112.7450634696756</v>
+      </c>
+      <c r="N98" s="11">
+        <v>101.04</v>
+      </c>
+      <c r="O98" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P98" s="9">
+        <v>64371</v>
+      </c>
+      <c r="Q98" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="17.25" thickBot="1">
       <c r="A99" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>169.2</v>
@@ -3979,10 +6813,31 @@
       <c r="J99">
         <v>57399</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99" s="2">
+        <v>35</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M99" s="6">
+        <v>114.0620592383639</v>
+      </c>
+      <c r="N99" s="11">
+        <v>101.58</v>
+      </c>
+      <c r="O99" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P99" s="9">
+        <v>60057</v>
+      </c>
+      <c r="Q99" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="17.25" thickBot="1">
       <c r="A100" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>169.8</v>
@@ -4011,10 +6866,31 @@
       <c r="J100">
         <v>58432</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100" s="2">
+        <v>35</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="M100" s="6">
+        <v>112.21967559943583</v>
+      </c>
+      <c r="N100" s="11">
+        <v>101.84</v>
+      </c>
+      <c r="O100" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P100" s="9">
+        <v>69827</v>
+      </c>
+      <c r="Q100" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="17.25" thickBot="1">
       <c r="A101" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B101">
         <v>171.1</v>
@@ -4043,10 +6919,31 @@
       <c r="J101">
         <v>46109</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101" s="2">
+        <v>39</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="M101" s="6">
+        <v>109.39527503526094</v>
+      </c>
+      <c r="N101" s="11">
+        <v>101.98</v>
+      </c>
+      <c r="O101" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P101" s="9">
+        <v>59232</v>
+      </c>
+      <c r="Q101" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="17.25" thickBot="1">
       <c r="A102" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>174.2</v>
@@ -4075,10 +6972,31 @@
       <c r="J102">
         <v>42574</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102" s="2">
+        <v>39</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="M102" s="6">
+        <v>109.13081805359663</v>
+      </c>
+      <c r="N102" s="11">
+        <v>102.05</v>
+      </c>
+      <c r="O102" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P102" s="9">
+        <v>61666</v>
+      </c>
+      <c r="Q102" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="17.25" thickBot="1">
       <c r="A103" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>178.3</v>
@@ -4107,10 +7025,31 @@
       <c r="J103">
         <v>42206</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103" s="2">
+        <v>39</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="M103" s="6">
+        <v>112.47179125528913</v>
+      </c>
+      <c r="N103" s="11">
+        <v>102.05</v>
+      </c>
+      <c r="O103" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P103" s="9">
+        <v>57861</v>
+      </c>
+      <c r="Q103" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="17.25" thickBot="1">
       <c r="A104" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>182.2</v>
@@ -4139,10 +7078,31 @@
       <c r="J104">
         <v>44832</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104" s="2">
+        <v>37</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M104" s="6">
+        <v>117.270955165692</v>
+      </c>
+      <c r="N104" s="11">
+        <v>102.26</v>
+      </c>
+      <c r="O104" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P104" s="9">
+        <v>59386</v>
+      </c>
+      <c r="Q104" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="17.25" thickBot="1">
       <c r="A105" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B105">
         <v>185.9</v>
@@ -4171,10 +7131,31 @@
       <c r="J105">
         <v>48310</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105" s="2">
+        <v>37</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M105" s="6">
+        <v>119.54191033138402</v>
+      </c>
+      <c r="N105" s="11">
+        <v>102.75</v>
+      </c>
+      <c r="O105" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P105" s="9">
+        <v>61170</v>
+      </c>
+      <c r="Q105" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="17.25" thickBot="1">
       <c r="A106" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B106">
         <v>188.7</v>
@@ -4203,10 +7184,31 @@
       <c r="J106">
         <v>44763</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106" s="2">
+        <v>37</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M106" s="6">
+        <v>118.79142300194931</v>
+      </c>
+      <c r="N106" s="11">
+        <v>103.17</v>
+      </c>
+      <c r="O106" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P106" s="9">
+        <v>55191</v>
+      </c>
+      <c r="Q106" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="17.25" thickBot="1">
       <c r="A107" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B107">
         <v>189.3</v>
@@ -4235,10 +7237,31 @@
       <c r="J107">
         <v>41560</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107" s="2">
+        <v>42</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M107" s="6">
+        <v>110.62053281351527</v>
+      </c>
+      <c r="N107" s="11">
+        <v>103.35</v>
+      </c>
+      <c r="O107" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P107" s="9">
+        <v>48796</v>
+      </c>
+      <c r="Q107" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="17.25" thickBot="1">
       <c r="A108" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108">
         <v>185.9</v>
@@ -4267,10 +7290,31 @@
       <c r="J108">
         <v>44173</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108" s="2">
+        <v>42</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="M108" s="6">
+        <v>100.59021009313406</v>
+      </c>
+      <c r="N108" s="11">
+        <v>103.87</v>
+      </c>
+      <c r="O108" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P108" s="9">
+        <v>41141</v>
+      </c>
+      <c r="Q108" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="17.25" thickBot="1">
       <c r="A109" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B109">
         <v>183.1</v>
@@ -4299,10 +7343,31 @@
       <c r="J109">
         <v>47424</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109" s="2">
+        <v>42</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="M109" s="6">
+        <v>96.573309940000428</v>
+      </c>
+      <c r="N109" s="11">
+        <v>104.04</v>
+      </c>
+      <c r="O109" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P109" s="9">
+        <v>30484</v>
+      </c>
+      <c r="Q109" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="17.25" thickBot="1">
       <c r="A110" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B110">
         <v>182.2</v>
@@ -4331,10 +7396,31 @@
       <c r="J110">
         <v>40343</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110" s="2">
+        <v>50</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="M110" s="6">
+        <v>95.159753059677257</v>
+      </c>
+      <c r="N110" s="11">
+        <v>104.85</v>
+      </c>
+      <c r="O110" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P110" s="9">
+        <v>24465</v>
+      </c>
+      <c r="Q110" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="17.25" thickBot="1">
       <c r="A111" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B111">
         <v>180.4</v>
@@ -4363,10 +7449,31 @@
       <c r="J111">
         <v>52018</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111" s="2">
+        <v>50</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="M111" s="6">
+        <v>94.020491270632064</v>
+      </c>
+      <c r="N111" s="11">
+        <v>105.42</v>
+      </c>
+      <c r="O111" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P111" s="9">
+        <v>26232</v>
+      </c>
+      <c r="Q111" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="17.25" thickBot="1">
       <c r="A112" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B112">
         <v>182.3</v>
@@ -4395,10 +7502,31 @@
       <c r="J112">
         <v>46280</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112" s="2">
+        <v>50</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M112" s="6">
+        <v>94.850631485453079</v>
+      </c>
+      <c r="N112" s="11">
+        <v>106.1</v>
+      </c>
+      <c r="O112" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P112" s="9">
+        <v>32487</v>
+      </c>
+      <c r="Q112" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="17.25" thickBot="1">
       <c r="A113" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B113">
         <v>184</v>
@@ -4427,10 +7555,31 @@
       <c r="J113">
         <v>36245</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113" s="2">
+        <v>29</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="M113" s="6">
+        <v>95.593363512313459</v>
+      </c>
+      <c r="N113" s="11">
+        <v>106.83</v>
+      </c>
+      <c r="O113" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P113" s="9">
+        <v>35679</v>
+      </c>
+      <c r="Q113" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="17.25" thickBot="1">
       <c r="A114" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B114">
         <v>181.3</v>
@@ -4459,10 +7608,31 @@
       <c r="J114">
         <v>38465</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114" s="2">
+        <v>29</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M114" s="6">
+        <v>94.949199540737851</v>
+      </c>
+      <c r="N114" s="11">
+        <v>107.5</v>
+      </c>
+      <c r="O114" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P114" s="9">
+        <v>37124</v>
+      </c>
+      <c r="Q114" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="17.25" thickBot="1">
       <c r="A115" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B115">
         <v>181.3</v>
@@ -4491,10 +7661,31 @@
       <c r="J115">
         <v>34249</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115" s="2">
+        <v>29</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M115" s="6">
+        <v>94.166955466990132</v>
+      </c>
+      <c r="N115" s="11">
+        <v>108.21</v>
+      </c>
+      <c r="O115" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P115" s="9">
+        <v>28147</v>
+      </c>
+      <c r="Q115" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="17.25" thickBot="1">
       <c r="A116" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B116">
         <v>173.9</v>
@@ -4523,10 +7714,31 @@
       <c r="J116">
         <v>34683</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116" s="2">
+        <v>30</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M116" s="6">
+        <v>92.36684211666342</v>
+      </c>
+      <c r="N116" s="11">
+        <v>108.73</v>
+      </c>
+      <c r="O116" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P116" s="9">
+        <v>21836</v>
+      </c>
+      <c r="Q116" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="17.25" thickBot="1">
       <c r="A117" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B117">
         <v>168.6</v>
@@ -4555,10 +7767,31 @@
       <c r="J117">
         <v>39502</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117" s="2">
+        <v>30</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="M117" s="6">
+        <v>89.683966555473731</v>
+      </c>
+      <c r="N117" s="11">
+        <v>108.63</v>
+      </c>
+      <c r="O117" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P117" s="9">
+        <v>19516</v>
+      </c>
+      <c r="Q117" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="17.25" thickBot="1">
       <c r="A118" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B118">
         <v>164.6</v>
@@ -4587,13 +7820,34 @@
       <c r="J118">
         <v>34332</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118" s="2">
+        <v>30</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="M118" s="6">
+        <v>87.097682477799452</v>
+      </c>
+      <c r="N118" s="11">
+        <v>108.82</v>
+      </c>
+      <c r="O118" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P118" s="9">
+        <v>18028</v>
+      </c>
+      <c r="Q118" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="17.25" thickBot="1">
       <c r="A119" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B119">
-        <v>156.7</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="C119">
         <v>85408</v>
@@ -4619,13 +7873,34 @@
       <c r="J119">
         <v>33795</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119" s="2">
+        <v>34</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="M119" s="6">
+        <v>83.717782109594964</v>
+      </c>
+      <c r="N119" s="11">
+        <v>109.16</v>
+      </c>
+      <c r="O119" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P119" s="9">
+        <v>18570</v>
+      </c>
+      <c r="Q119" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="17.25" thickBot="1">
       <c r="A120" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120">
-        <v>148.2</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="C120">
         <v>85979</v>
@@ -4651,13 +7926,34 @@
       <c r="J120">
         <v>36042</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120" s="2">
+        <v>34</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="M120" s="6">
+        <v>78.218540177604496</v>
+      </c>
+      <c r="N120" s="11">
+        <v>109.07</v>
+      </c>
+      <c r="O120" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P120" s="9">
+        <v>18275</v>
+      </c>
+      <c r="Q120" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="17.25" thickBot="1">
       <c r="A121" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B121">
-        <v>142.7</v>
+        <v>142.69999999999999</v>
       </c>
       <c r="C121">
         <v>92333</v>
@@ -4683,10 +7979,31 @@
       <c r="J121">
         <v>39962</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121" s="2">
+        <v>34</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="M121" s="6">
+        <v>74.578730777561177</v>
+      </c>
+      <c r="N121" s="11">
+        <v>109.26</v>
+      </c>
+      <c r="O121" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P121" s="9">
+        <v>18222</v>
+      </c>
+      <c r="Q121" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="17.25" thickBot="1">
       <c r="A122" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B122">
         <v>144.4</v>
@@ -4715,13 +8032,34 @@
       <c r="J122">
         <v>39776</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122" s="2">
+        <v>33</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="M122" s="6">
+        <v>76.053911205074002</v>
+      </c>
+      <c r="N122" s="11">
+        <v>110.07</v>
+      </c>
+      <c r="O122" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P122" s="9">
+        <v>17841</v>
+      </c>
+      <c r="Q122" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="17.25" thickBot="1">
       <c r="A123" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B123">
-        <v>147.2</v>
+        <v>147.19999999999999</v>
       </c>
       <c r="C123">
         <v>126733</v>
@@ -4747,10 +8085,31 @@
       <c r="J123">
         <v>49470</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123" s="2">
+        <v>33</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="M123" s="6">
+        <v>77.146934460887948</v>
+      </c>
+      <c r="N123" s="11">
+        <v>110.33</v>
+      </c>
+      <c r="O123" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P123" s="9">
+        <v>31337</v>
+      </c>
+      <c r="Q123" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="17.25" thickBot="1">
       <c r="A124" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B124">
         <v>149.5</v>
@@ -4779,13 +8138,34 @@
       <c r="J124">
         <v>46093</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124" s="2">
+        <v>33</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="M124" s="6">
+        <v>79.763213530655406</v>
+      </c>
+      <c r="N124" s="11">
+        <v>110.52</v>
+      </c>
+      <c r="O124" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P124" s="9">
+        <v>38926</v>
+      </c>
+      <c r="Q124" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="17.25" thickBot="1">
       <c r="A125" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B125">
-        <v>151.7</v>
+        <v>151.69999999999999</v>
       </c>
       <c r="C125">
         <v>89745</v>
@@ -4811,10 +8191,31 @@
       <c r="J125">
         <v>34742</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125" s="2">
+        <v>34</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="M125" s="6">
+        <v>82.358350951374206</v>
+      </c>
+      <c r="N125" s="11">
+        <v>110.77</v>
+      </c>
+      <c r="O125" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P125" s="9">
+        <v>34965</v>
+      </c>
+      <c r="Q125" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="17.25" thickBot="1">
       <c r="A126" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B126">
         <v>153.6</v>
@@ -4843,10 +8244,31 @@
       <c r="J126">
         <v>37401</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126" s="2">
+        <v>34</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="M126" s="6">
+        <v>85.498942917547581</v>
+      </c>
+      <c r="N126" s="11">
+        <v>111.13</v>
+      </c>
+      <c r="O126" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P126" s="9">
+        <v>40746</v>
+      </c>
+      <c r="Q126" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="17.25" thickBot="1">
       <c r="A127" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B127">
         <v>156.4</v>
@@ -4875,10 +8297,31 @@
       <c r="J127">
         <v>36152</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127" s="2">
+        <v>34</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M127" s="6">
+        <v>86.969344608879481</v>
+      </c>
+      <c r="N127" s="11">
+        <v>111.16</v>
+      </c>
+      <c r="O127" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P127" s="9">
+        <v>39622</v>
+      </c>
+      <c r="Q127" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="17.25" thickBot="1">
       <c r="A128" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B128">
         <v>158</v>
@@ -4907,10 +8350,31 @@
       <c r="J128">
         <v>35639</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128" s="2">
+        <v>33</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M128" s="6">
+        <v>88.112050739957709</v>
+      </c>
+      <c r="N128" s="11">
+        <v>111.29</v>
+      </c>
+      <c r="O128" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P128" s="9">
+        <v>36260</v>
+      </c>
+      <c r="Q128" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="17.25" thickBot="1">
       <c r="A129" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B129">
         <v>159.9</v>
@@ -4939,10 +8403,31 @@
       <c r="J129">
         <v>39861</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129" s="2">
+        <v>33</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="M129" s="6">
+        <v>89.618393234672297</v>
+      </c>
+      <c r="N129" s="11">
+        <v>112.28</v>
+      </c>
+      <c r="O129" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P129" s="9">
+        <v>39277</v>
+      </c>
+      <c r="Q129" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="17.25" thickBot="1">
       <c r="A130" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B130">
         <v>161.4</v>
@@ -4971,10 +8456,31 @@
       <c r="J130">
         <v>32300</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130" s="2">
+        <v>33</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="M130" s="6">
+        <v>90.899577167019032</v>
+      </c>
+      <c r="N130" s="11">
+        <v>112.83</v>
+      </c>
+      <c r="O130" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P130" s="9">
+        <v>37629</v>
+      </c>
+      <c r="Q130" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="17.25" thickBot="1">
       <c r="A131" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B131">
         <v>161.1</v>
@@ -5003,10 +8509,31 @@
       <c r="J131">
         <v>36098</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131" s="2">
+        <v>34</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="M131" s="6">
+        <v>90.701902748414383</v>
+      </c>
+      <c r="N131" s="11">
+        <v>113.26</v>
+      </c>
+      <c r="O131" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P131" s="9">
+        <v>35454</v>
+      </c>
+      <c r="Q131" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="17.25" thickBot="1">
       <c r="A132" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B132">
         <v>158.6</v>
@@ -5035,10 +8562,31 @@
       <c r="J132">
         <v>36326</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132" s="2">
+        <v>34</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M132" s="6">
+        <v>89.263213530655392</v>
+      </c>
+      <c r="N132" s="11">
+        <v>112.67</v>
+      </c>
+      <c r="O132" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P132" s="9">
+        <v>32821</v>
+      </c>
+      <c r="Q132" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="17.25" thickBot="1">
       <c r="A133" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B133">
         <v>157</v>
@@ -5067,104 +8615,49 @@
       <c r="J133">
         <v>37551</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B134">
-        <v>157.4</v>
-      </c>
-      <c r="C134">
-        <v>111217</v>
-      </c>
-      <c r="D134">
-        <v>111982</v>
-      </c>
-      <c r="E134">
-        <v>-765</v>
-      </c>
-      <c r="F134">
-        <v>24700</v>
-      </c>
-      <c r="G134">
-        <v>43313</v>
-      </c>
-      <c r="H134">
-        <v>43313</v>
-      </c>
-      <c r="I134">
-        <v>43204</v>
-      </c>
-      <c r="J134">
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B135">
-        <v>158.4</v>
-      </c>
-      <c r="C135">
-        <v>138040</v>
-      </c>
-      <c r="D135">
-        <v>134906</v>
-      </c>
-      <c r="E135">
-        <v>3134</v>
-      </c>
-      <c r="F135">
-        <v>29646</v>
-      </c>
-      <c r="G135">
-        <v>53843</v>
-      </c>
-      <c r="H135">
-        <v>53843</v>
-      </c>
-      <c r="I135">
-        <v>54551</v>
-      </c>
-      <c r="J135">
-        <v>51417</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B136">
-        <v>158.7</v>
-      </c>
-      <c r="C136">
-        <v>108484</v>
-      </c>
-      <c r="D136">
-        <v>109721</v>
-      </c>
-      <c r="E136">
-        <v>-1237</v>
-      </c>
-      <c r="F136">
-        <v>24453</v>
-      </c>
-      <c r="G136">
-        <v>40984</v>
-      </c>
-      <c r="H136">
-        <v>40984</v>
-      </c>
-      <c r="I136">
-        <v>43047</v>
-      </c>
-      <c r="J136">
-        <v>44284</v>
-      </c>
+      <c r="K133" s="2">
+        <v>34</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="M133" s="6">
+        <v>87.872093023255815</v>
+      </c>
+      <c r="N133" s="11">
+        <v>112.71</v>
+      </c>
+      <c r="O133" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="P133" s="9">
+        <v>26934</v>
+      </c>
+      <c r="Q133" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="D134" s="12"/>
+      <c r="E134" s="8"/>
+      <c r="N134"/>
+      <c r="O134"/>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="D135" s="12"/>
+      <c r="E135" s="8"/>
+      <c r="N135"/>
+      <c r="O135"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="D136" s="12"/>
+      <c r="E136" s="8"/>
+      <c r="N136"/>
+      <c r="O136"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>